--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H2">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +558,22 @@
         <v>0.471381</v>
       </c>
       <c r="O2">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P2">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q2">
-        <v>0.7107992856993334</v>
+        <v>0.1411975694913333</v>
       </c>
       <c r="R2">
-        <v>6.397193571294</v>
+        <v>1.270778125422</v>
       </c>
       <c r="S2">
-        <v>0.4127277926527736</v>
+        <v>0.142693774214099</v>
       </c>
       <c r="T2">
-        <v>0.4127277926527736</v>
+        <v>0.142693774214099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H3">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.1413324638230279</v>
       </c>
       <c r="Q3">
-        <v>0.1169940752375555</v>
+        <v>0.02324042722155556</v>
       </c>
       <c r="R3">
-        <v>1.052946677138</v>
+        <v>0.209163844994</v>
       </c>
       <c r="S3">
-        <v>0.06793296982388078</v>
+        <v>0.02348669517852713</v>
       </c>
       <c r="T3">
-        <v>0.06793296982388078</v>
+        <v>0.02348669517852714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.328443</v>
       </c>
       <c r="I4">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J4">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.471381</v>
       </c>
       <c r="O4">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P4">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q4">
-        <v>0.3314564210870001</v>
+        <v>0.331456421087</v>
       </c>
       <c r="R4">
         <v>2.983107789783</v>
       </c>
       <c r="S4">
-        <v>0.1924611909271001</v>
+        <v>0.3349687100336721</v>
       </c>
       <c r="T4">
-        <v>0.1924611909271001</v>
+        <v>0.3349687100336721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.328443</v>
       </c>
       <c r="I5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>0.491004907041</v>
       </c>
       <c r="S5">
-        <v>0.03167816781003247</v>
+        <v>0.05513420631163012</v>
       </c>
       <c r="T5">
-        <v>0.03167816781003247</v>
+        <v>0.05513420631163013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H6">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I6">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J6">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.471381</v>
       </c>
       <c r="O6">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P6">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q6">
-        <v>0.436540444655</v>
+        <v>0.377010052419</v>
       </c>
       <c r="R6">
-        <v>3.928864001895</v>
+        <v>3.393090471771</v>
       </c>
       <c r="S6">
-        <v>0.2534785525970984</v>
+        <v>0.3810050519292009</v>
       </c>
       <c r="T6">
-        <v>0.2534785525970984</v>
+        <v>0.3810050519292009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H7">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I7">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J7">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,16 +874,16 @@
         <v>0.1413324638230279</v>
       </c>
       <c r="Q7">
-        <v>0.07185241551833332</v>
+        <v>0.062054005013</v>
       </c>
       <c r="R7">
-        <v>0.646671739665</v>
+        <v>0.558486045117</v>
       </c>
       <c r="S7">
-        <v>0.04172132618911469</v>
+        <v>0.06271156233287067</v>
       </c>
       <c r="T7">
-        <v>0.04172132618911469</v>
+        <v>0.06271156233287067</v>
       </c>
     </row>
   </sheetData>
